--- a/data-science/exploratory-data-analysis/outputs/Model_Results.xlsx
+++ b/data-science/exploratory-data-analysis/outputs/Model_Results.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06af25a4dc2b6874/Documents/Guided Projects/data-science/exploratory-data-analysis/outputs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_51078C97C6B3BF51D3E4A510BC3AB833776A61A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08B14440-DD8C-4956-9814-D61A2E0A5000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="REP_MLOGREG" sheetId="1" r:id="rId1"/>
@@ -22,18 +16,20 @@
     <sheet name="REP_SVMRAD" sheetId="7" r:id="rId7"/>
     <sheet name="REP_KNN" sheetId="8" r:id="rId8"/>
     <sheet name="REP_GNB" sheetId="9" r:id="rId9"/>
-    <sheet name="REP_GBC" sheetId="10" r:id="rId10"/>
-    <sheet name="REP_XGBC" sheetId="11" r:id="rId11"/>
-    <sheet name="SUM_DNN" sheetId="12" r:id="rId12"/>
-    <sheet name="REP_DNN" sheetId="13" r:id="rId13"/>
-    <sheet name="ACC_ALL" sheetId="14" r:id="rId14"/>
+    <sheet name="REP_BNB" sheetId="10" r:id="rId10"/>
+    <sheet name="REP_SGD" sheetId="11" r:id="rId11"/>
+    <sheet name="REP_GBC" sheetId="12" r:id="rId12"/>
+    <sheet name="REP_XGBC" sheetId="13" r:id="rId13"/>
+    <sheet name="SUM_DNN" sheetId="14" r:id="rId14"/>
+    <sheet name="REP_DNN" sheetId="15" r:id="rId15"/>
+    <sheet name="ACC_ALL" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
   <si>
     <t>precision</t>
   </si>
@@ -167,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +174,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -224,31 +213,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -295,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,27 +305,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,24 +339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,19 +514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,41 +535,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.89090909090909087</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="C2">
-        <v>0.80327868852459017</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="D2">
-        <v>0.84482758620689646</v>
+        <v>0.8448275862068965</v>
       </c>
       <c r="E2">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.81818181818181823</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C3">
         <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.85714285714285721</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,7 +586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,24 +603,24 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.90303030303030296</v>
+        <v>0.903030303030303</v>
       </c>
       <c r="C6">
-        <v>0.90109289617486343</v>
+        <v>0.9010928961748634</v>
       </c>
       <c r="D6">
-        <v>0.90065681444991785</v>
+        <v>0.9006568144499179</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -706,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,103 +664,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7862068965517242</v>
       </c>
       <c r="E2">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="E3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9112426035502957</v>
       </c>
       <c r="E4">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.775</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.775</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.775</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.7806064306064306</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.7530365912706647</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.7286071977084253</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.7872164224664224</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.775</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.7462455597576195</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -835,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,103 +793,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.796875</v>
       </c>
       <c r="E2">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="E3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9518072289156626</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9753086419753086</v>
       </c>
       <c r="E4">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8376670862554696</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.8342440801457195</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.8331521230826785</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8481280345261644</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.8464756067620649</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -964,97 +901,127 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1063,129 +1030,127 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7.0920293219387531E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.4991095289587969E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2.4827199522405858E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2.75839539244771E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.98000001907348633</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.9059821516275413E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>8.5223913192749023E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1.324082724750042E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.9129393622279169E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1.080660615116358E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1.494125928729773E-3</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1194,20 +1159,244 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.007092029321938753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.01499109528958797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.002482719952240586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.00275839539244771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="C6">
+        <v>0.03905982151627541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.008522391319274902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.01324082724750042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.001912939362227917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.01080660615116358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.001494125928729773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1215,157 +1404,157 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0.91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0.91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0.875</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>0.85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
@@ -1375,14 +1564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,41 +1585,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.89090909090909087</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="C2">
-        <v>0.80327868852459017</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="D2">
-        <v>0.84482758620689646</v>
+        <v>0.8448275862068965</v>
       </c>
       <c r="E2">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.81818181818181823</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C3">
         <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.85714285714285721</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1636,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1464,24 +1653,24 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.90303030303030296</v>
+        <v>0.903030303030303</v>
       </c>
       <c r="C6">
-        <v>0.90109289617486343</v>
+        <v>0.9010928961748634</v>
       </c>
       <c r="D6">
-        <v>0.90065681444991785</v>
+        <v>0.9006568144499179</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1504,14 +1693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +1748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1799,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1633,14 +1822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1705,7 +1894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +1928,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1762,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1783,58 +1972,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.78082191780821919</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C2">
-        <v>0.93442622950819676</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="D2">
-        <v>0.85074626865671654</v>
+        <v>0.8507462686567165</v>
       </c>
       <c r="E2">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.88888888888888884</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C3">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>0.76190476190476197</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.95121951219512191</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="C4">
-        <v>0.98734177215189878</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="D4">
-        <v>0.96894409937888204</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="E4">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1851,12 +2040,12 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.87364343963074331</v>
+        <v>0.8736434396307433</v>
       </c>
       <c r="C6">
         <v>0.8628115561089208</v>
@@ -1868,12 +2057,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.88054905891524671</v>
+        <v>0.8805490589152467</v>
       </c>
       <c r="C7">
         <v>0.875</v>
@@ -1891,14 +2080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +2101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +2118,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +2135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1963,7 +2152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1980,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2186,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2020,14 +2209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2109,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2126,7 +2315,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2149,14 +2338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2170,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2187,7 +2376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2221,7 +2410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2238,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +2444,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2278,14 +2467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,41 +2488,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.62068965517241381</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C2">
-        <v>0.87096774193548387</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="D2">
-        <v>0.72483221476510074</v>
+        <v>0.7248322147651007</v>
       </c>
       <c r="E2">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.47058823529411759</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C3">
         <v>0.2461538461538462</v>
       </c>
       <c r="D3">
-        <v>0.32323232323232332</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="E3">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2341,16 +2530,16 @@
         <v>0.759493670886076</v>
       </c>
       <c r="C4">
-        <v>0.82191780821917804</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="D4">
-        <v>0.78947368421052633</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E4">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2367,15 +2556,15 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.61692385378420245</v>
+        <v>0.6169238537842024</v>
       </c>
       <c r="C6">
-        <v>0.64634646543616936</v>
+        <v>0.6463464654361694</v>
       </c>
       <c r="D6">
         <v>0.6125127407359835</v>
@@ -2384,18 +2573,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.62257015944745431</v>
+        <v>0.6225701594474543</v>
       </c>
       <c r="C7">
         <v>0.65</v>
       </c>
       <c r="D7">
-        <v>0.61790638636452844</v>
+        <v>0.6179063863645284</v>
       </c>
       <c r="E7">
         <v>200</v>
